--- a/Hardware/PCB/BOM.xlsx
+++ b/Hardware/PCB/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.124\home\1.client\Shinshu University\SSST\SSST_blood_sugar_git\Hardware\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1C5314-6739-4E79-BE08-5A3AEB6AB45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E0E7F4-CE79-4DC0-BA17-EE811387A966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" xr2:uid="{17B06EB3-06E9-4E4F-B814-7DD1BC27E1F5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{74C78A17-D7F6-495A-AF7F-EBF2F8C7336C}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
   <si>
     <t>Comment</t>
   </si>
@@ -52,12 +52,18 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Vender</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
     <t>GRM1885C1H101JA01D</t>
   </si>
   <si>
@@ -70,30 +76,57 @@
     <t>C1608</t>
   </si>
   <si>
+    <t>murata</t>
+  </si>
+  <si>
+    <t>0.1μ</t>
+  </si>
+  <si>
     <t>JMK107BJ475KA-T</t>
   </si>
   <si>
     <t>C3, C4, C9, C10, C11, C16</t>
   </si>
   <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>4.7μF</t>
+  </si>
+  <si>
     <t>GCM188R71E224KA55J</t>
   </si>
   <si>
     <t>C5, C12</t>
   </si>
   <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>0.22μF</t>
+  </si>
+  <si>
     <t>GRM1885C1H102JA01J</t>
   </si>
   <si>
     <t>C6, C13</t>
   </si>
   <si>
+    <t>1000pF</t>
+  </si>
+  <si>
     <t>C1608X5R1A106M080AC</t>
   </si>
   <si>
     <t>C7, C8, C14, C15, C23</t>
   </si>
   <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>10μF</t>
+  </si>
+  <si>
     <t>SL22-E3/52T</t>
   </si>
   <si>
@@ -106,6 +139,24 @@
     <t>DO-214AA</t>
   </si>
   <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>BAT54STA</t>
+  </si>
+  <si>
+    <t>ダブル直列ショットキー</t>
+  </si>
+  <si>
+    <t>D2, D3, D4</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>Fairchild</t>
+  </si>
+  <si>
     <t>DF13-2P-1.25DSA</t>
   </si>
   <si>
@@ -115,6 +166,9 @@
     <t>J1</t>
   </si>
   <si>
+    <t>Hirose</t>
+  </si>
+  <si>
     <t>WP710A10GD</t>
   </si>
   <si>
@@ -127,6 +181,9 @@
     <t>LED_T1</t>
   </si>
   <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
     <t>OSRB3132A</t>
   </si>
   <si>
@@ -139,6 +196,9 @@
     <t>LED3COLORS</t>
   </si>
   <si>
+    <t>AKIZUKI</t>
+  </si>
+  <si>
     <t>3221-10-0300-00</t>
   </si>
   <si>
@@ -151,9 +211,6 @@
     <t>Headerpin 2x5</t>
   </si>
   <si>
-    <t>Header2x5</t>
-  </si>
-  <si>
     <t>1206L016WR</t>
   </si>
   <si>
@@ -166,33 +223,45 @@
     <t>1206L</t>
   </si>
   <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
     <t>RG1608P-103-B-T5</t>
   </si>
   <si>
     <t>薄膜チップ抵抗1608サイズ</t>
   </si>
   <si>
-    <t>R2, R3, R6, R10, R11</t>
+    <t>R2, R3, R6, R10, R11, R16</t>
   </si>
   <si>
     <t>R1608</t>
   </si>
   <si>
-    <t>MF1608</t>
+    <t>susumu</t>
+  </si>
+  <si>
+    <t>10k</t>
   </si>
   <si>
     <t>RG1608P-512-B-T5</t>
   </si>
   <si>
-    <t>R4, R5, R14, R15, R16, R17, R18, R20, R21</t>
-  </si>
-  <si>
-    <t>RG1608P-302-B-T5</t>
+    <t>R4, R5</t>
+  </si>
+  <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>RG1608P-332-B-T5</t>
   </si>
   <si>
     <t>R7, R8</t>
   </si>
   <si>
+    <t>3.3k</t>
+  </si>
+  <si>
     <t>SM-3TW502</t>
   </si>
   <si>
@@ -205,7 +274,58 @@
     <t>SM-3TW</t>
   </si>
   <si>
-    <t>SM-3TW***</t>
+    <t>Copal</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>RG1608P-102-B-T5</t>
+  </si>
+  <si>
+    <t>R14, R15</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>RT0603DRD071ML</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>RG1608P-203-B-T5</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>RG1608P-303-B-T5</t>
+  </si>
+  <si>
+    <t>R20, R23</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>RG1608P-114-B-T5</t>
+  </si>
+  <si>
+    <t>R21, R24</t>
+  </si>
+  <si>
+    <t>110k</t>
   </si>
   <si>
     <t>PTS645SH50SMTR92 LFS</t>
@@ -217,6 +337,9 @@
     <t>SW1, SW2</t>
   </si>
   <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
     <t>CLB2032BUPB</t>
   </si>
   <si>
@@ -271,6 +394,9 @@
     <t>SOT-23-6</t>
   </si>
   <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
     <t>OPA2330AIDR</t>
   </si>
   <si>
@@ -280,6 +406,9 @@
     <t>U6</t>
   </si>
   <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
     <t>DX07W024JA1R1000</t>
   </si>
   <si>
@@ -287,6 +416,9 @@
   </si>
   <si>
     <t>UBS1</t>
+  </si>
+  <si>
+    <t>JAE</t>
   </si>
 </sst>
 </file>
@@ -682,17 +814,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8764F-27D2-4688-ACA0-BED531A97E3D}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B282EE6E-125B-4C25-AD3B-E8A956CC80CB}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="17.375" customWidth="1"/>
+    <col min="1" max="8" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -711,470 +845,672 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hardware/PCB/BOM.xlsx
+++ b/Hardware/PCB/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e9ddcf456087d58/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.124\home\1.client\Shinshu University\SSST\SSST_blood_sugar_git\Hardware\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5B21C1F0-78F7-45A4-AA3A-052F9EDF6BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA3D8E56-B128-4A89-9E27-21CAEF086662}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD449F9E-D801-4074-B0CB-32852205260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C40D4CD9-F564-4769-BA4E-2C12E53582AA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>Comment</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Designator</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -64,18 +58,12 @@
     <t>C2, C19</t>
   </si>
   <si>
-    <t>C1608</t>
-  </si>
-  <si>
     <t>セラコン1005サイズ</t>
   </si>
   <si>
     <t>C3, C4, C9, C10, C11, C16</t>
   </si>
   <si>
-    <t>C1005</t>
-  </si>
-  <si>
     <t>C5, C12</t>
   </si>
   <si>
@@ -91,33 +79,18 @@
     <t>C23</t>
   </si>
   <si>
-    <t>CDBW0520L-G</t>
-  </si>
-  <si>
     <t>Schottky Rectifier</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>SOD-123</t>
-  </si>
-  <si>
     <t>ダブル直列ショットキー</t>
   </si>
   <si>
     <t>D2, D3, D4</t>
   </si>
   <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>BAT54S</t>
-  </si>
-  <si>
-    <t>B02B-PASK-1</t>
-  </si>
-  <si>
     <t>雄,ストレート,1列2ピン</t>
   </si>
   <si>
@@ -127,45 +100,24 @@
     <t>LED1</t>
   </si>
   <si>
-    <t>LED_T1</t>
-  </si>
-  <si>
     <t>LED2</t>
   </si>
   <si>
-    <t>LED3COLORS</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
-    <t>Headerpin 2x5</t>
-  </si>
-  <si>
-    <t>Header2x5</t>
-  </si>
-  <si>
     <t>Resettable PTC</t>
   </si>
   <si>
     <t>PTC1</t>
   </si>
   <si>
-    <t>1206L</t>
-  </si>
-  <si>
     <t>薄膜チップ抵抗1608サイズ</t>
   </si>
   <si>
     <t>R1, R21, R24</t>
   </si>
   <si>
-    <t>R1608</t>
-  </si>
-  <si>
-    <t>MF1608</t>
-  </si>
-  <si>
     <t>R2, R10</t>
   </si>
   <si>
@@ -175,12 +127,6 @@
     <t>R3, R6, R11</t>
   </si>
   <si>
-    <t>R1005</t>
-  </si>
-  <si>
-    <t>MF1005</t>
-  </si>
-  <si>
     <t>R4, R5</t>
   </si>
   <si>
@@ -193,12 +139,6 @@
     <t>R12</t>
   </si>
   <si>
-    <t>SM-3TW</t>
-  </si>
-  <si>
-    <t>SM-3TW***</t>
-  </si>
-  <si>
     <t>R14</t>
   </si>
   <si>
@@ -235,9 +175,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>SOIC8_3.9mm</t>
-  </si>
-  <si>
     <t>LTC1682IS8-5#PBF</t>
   </si>
   <si>
@@ -247,18 +184,12 @@
     <t>U3</t>
   </si>
   <si>
-    <t>NINA-B302</t>
-  </si>
-  <si>
     <t>u-blox NINA-B302 Bluetooth 5 LE, 802.15.4 module</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>NINA_LGA67R_1500X1000X338_PIFA</t>
-  </si>
-  <si>
     <t>AD7680BRJZ</t>
   </si>
   <si>
@@ -266,9 +197,6 @@
   </si>
   <si>
     <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-23-6</t>
   </si>
   <si>
     <t>OPA2330AIDR</t>
@@ -308,10 +236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Digikey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GRM188R72A104MA35D</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -344,17 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chip1stop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秋月</t>
-    <rPh sb="0" eb="2">
-      <t>アキヅキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Header, 2 x 10 -Pin 1.27mm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,10 +329,6 @@
   </si>
   <si>
     <t>PTS645SK95SMTR92LFS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CLB2032BUPB</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -503,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,9 +432,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,22 +748,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9DE4D6-EAD9-4941-A797-166082D91D1C}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="2" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -870,725 +773,452 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1">
-        <v>60</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
         <v>20</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1">
-        <v>30</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="1">
-        <v>30</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="1">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="1">
-        <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="1">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="1">
-        <v>10</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1">
-        <v>20</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="1">
-        <v>20</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="D33" s="1">
         <v>10</v>
       </c>
     </row>

--- a/Hardware/PCB/BOM.xlsx
+++ b/Hardware/PCB/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.124\home\1.client\Shinshu University\SSST\SSST_blood_sugar_git\Hardware\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.124\home\1.client\Shinshu University\SSST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD449F9E-D801-4074-B0CB-32852205260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8FD5C3-67CF-40AD-8B83-B3BAC36F7134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C40D4CD9-F564-4769-BA4E-2C12E53582AA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9359D80E-B7FB-490F-936A-2781EB2E3D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t>Comment</t>
   </si>
@@ -49,16 +49,31 @@
     <t>Designator</t>
   </si>
   <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>LibRef</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
+    <t>セラコン1005サイズ</t>
+  </si>
+  <si>
+    <t>C1, C7, C8, C14, C15</t>
+  </si>
+  <si>
+    <t>C1005</t>
+  </si>
+  <si>
     <t>セラコン1608サイズ</t>
   </si>
   <si>
-    <t>C2, C19</t>
-  </si>
-  <si>
-    <t>セラコン1005サイズ</t>
+    <t>C2, C18, C19</t>
+  </si>
+  <si>
+    <t>C1608</t>
   </si>
   <si>
     <t>C3, C4, C9, C10, C11, C16</t>
@@ -70,19 +85,22 @@
     <t>C6, C13</t>
   </si>
   <si>
-    <t>C7, C8, C14, C15</t>
-  </si>
-  <si>
     <t>C17, C20, C21, C22</t>
   </si>
   <si>
     <t>C23</t>
   </si>
   <si>
+    <t>CDBW0520L-G</t>
+  </si>
+  <si>
     <t>Schottky Rectifier</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>D1, D5</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
   </si>
   <si>
     <t>ダブル直列ショットキー</t>
@@ -91,33 +109,78 @@
     <t>D2, D3, D4</t>
   </si>
   <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>BAT54S</t>
+  </si>
+  <si>
+    <t>B02B-PASK-1</t>
+  </si>
+  <si>
     <t>雄,ストレート,1列2ピン</t>
   </si>
   <si>
     <t>J1</t>
   </si>
   <si>
+    <t>WP710A10GD</t>
+  </si>
+  <si>
+    <t>LED T1 GREEN</t>
+  </si>
+  <si>
     <t>LED1</t>
   </si>
   <si>
+    <t>LED_T1</t>
+  </si>
+  <si>
+    <t>OSRGHC3131A</t>
+  </si>
+  <si>
+    <t>2色LED（赤,青）</t>
+  </si>
+  <si>
     <t>LED2</t>
   </si>
   <si>
+    <t>LED3COLORS</t>
+  </si>
+  <si>
+    <t>FTSH-110-01-F-DV-K-P-TR</t>
+  </si>
+  <si>
+    <t>Header, 2 x 10 -Pin 1.27mm</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
+    <t>Headerpin 2x10</t>
+  </si>
+  <si>
     <t>Resettable PTC</t>
   </si>
   <si>
     <t>PTC1</t>
   </si>
   <si>
+    <t>1206L</t>
+  </si>
+  <si>
     <t>薄膜チップ抵抗1608サイズ</t>
   </si>
   <si>
     <t>R1, R21, R24</t>
   </si>
   <si>
+    <t>R1608</t>
+  </si>
+  <si>
+    <t>MF1608</t>
+  </si>
+  <si>
     <t>R2, R10</t>
   </si>
   <si>
@@ -127,6 +190,12 @@
     <t>R3, R6, R11</t>
   </si>
   <si>
+    <t>R1005</t>
+  </si>
+  <si>
+    <t>MF1005</t>
+  </si>
+  <si>
     <t>R4, R5</t>
   </si>
   <si>
@@ -139,6 +208,12 @@
     <t>R12</t>
   </si>
   <si>
+    <t>SM-3TW</t>
+  </si>
+  <si>
+    <t>SM-3TW***</t>
+  </si>
+  <si>
     <t>R14</t>
   </si>
   <si>
@@ -151,6 +226,9 @@
     <t>R20, R23</t>
   </si>
   <si>
+    <t>PTS645SK13SMTR92LFS</t>
+  </si>
+  <si>
     <t>Tactile Switch 6 x 6mm</t>
   </si>
   <si>
@@ -175,6 +253,9 @@
     <t>U2</t>
   </si>
   <si>
+    <t>SOIC8_3.9mm</t>
+  </si>
+  <si>
     <t>LTC1682IS8-5#PBF</t>
   </si>
   <si>
@@ -184,12 +265,18 @@
     <t>U3</t>
   </si>
   <si>
+    <t>NINA-B302</t>
+  </si>
+  <si>
     <t>u-blox NINA-B302 Bluetooth 5 LE, 802.15.4 module</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
+    <t>NINA_LGA67R_1500X1000X338_PIFA</t>
+  </si>
+  <si>
     <t>AD7680BRJZ</t>
   </si>
   <si>
@@ -199,6 +286,9 @@
     <t>U5</t>
   </si>
   <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
     <t>OPA2330AIDR</t>
   </si>
   <si>
@@ -214,125 +304,121 @@
     <t>USB3.1 Type-C</t>
   </si>
   <si>
-    <t>UBS1</t>
+    <t>USB1</t>
+  </si>
+  <si>
+    <t>GRM188R72A104MA35D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRM155R61A475MEAAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRM155R61A224KE19J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRM155R61A102KA01D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRM155R60J106ME15D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRM155R61A104KA01J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRM188D71A106KA73D</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>CDBW0520L-G</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>BAT54SHE3-TP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>B02B-PASK-1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>WP710A10QBC/D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EALP03RDHRGA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>FTSH-110-01-F-DV-K-P-TR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2色LED（赤,黄緑）</t>
-    <rPh sb="8" eb="10">
-      <t>キミドリ</t>
+    <t>1206L016WR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RG1608P-114-B-T5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT0603BRE0710KL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT0402BRD0710KL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RG1005P-512-B-T5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT0402BRD073K3L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SM-3TW502</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT0603CRE071KL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT0603DRD071ML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT0603DRD07200KL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT0603BRE0730KL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PTS645SK95SMTR92LFS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NINA-B302</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替品</t>
+    <rPh sb="0" eb="3">
+      <t>ダイタイヒン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GRM188R72A104MA35D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GRM155R61A475MEAAD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GRM155R61A224KE19J</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GRM155R61A102KA01D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GRM155R60J106ME15D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GRM155R61A104KA01J</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GRM188D71A106KA73D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BAT54SHE3-TP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Header, 2 x 10 -Pin 1.27mm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1206L016WR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RG1608P-114-B-T5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RG1005P-512-B-T5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SM-3TW502</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT0603DRD071ML</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NINA-B302</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT0603BRE0710KL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT0402BRD0710KL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT0603DRD07200KL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT0603BRE0730KL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WP710A10QBC/D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED T1 Blue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EALP03RDHRGA1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT0603CRE071KL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PTS645SK95SMTR92LFS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT0402BRD073K3L</t>
+    <t>NINA-B306</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,12 +459,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,8 +511,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,20 +833,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9DE4D6-EAD9-4941-A797-166082D91D1C}">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AD9293-DD8B-47F0-B278-313F945611D3}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="4" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="5" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -773,454 +862,689 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="E32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="C33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="1">
-        <v>10</v>
-      </c>
+      <c r="E33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
